--- a/APP出单业务竞赛统计表.xlsx
+++ b/APP出单业务竞赛统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="256">
   <si>
     <t>掌上宝APP出单数量统计表</t>
   </si>
@@ -579,12 +579,6 @@
     <t>王荷花</t>
   </si>
   <si>
-    <t>航旅项目</t>
-  </si>
-  <si>
-    <t>高福涛</t>
-  </si>
-  <si>
     <t>张晓铁</t>
   </si>
   <si>
@@ -603,15 +597,15 @@
     <t>唐雯</t>
   </si>
   <si>
+    <t>梁喜萍</t>
+  </si>
+  <si>
+    <t>刘志明</t>
+  </si>
+  <si>
     <t>周旭盛</t>
   </si>
   <si>
-    <t>梁喜萍</t>
-  </si>
-  <si>
-    <t>刘志明</t>
-  </si>
-  <si>
     <t>付加兵</t>
   </si>
   <si>
@@ -642,12 +636,12 @@
     <t>杨宝明</t>
   </si>
   <si>
+    <t>张天宇</t>
+  </si>
+  <si>
     <t>王庆莉</t>
   </si>
   <si>
-    <t>张天宇</t>
-  </si>
-  <si>
     <t>陈蕾</t>
   </si>
   <si>
@@ -669,13 +663,13 @@
     <t>黄初雪</t>
   </si>
   <si>
+    <t>张春林</t>
+  </si>
+  <si>
     <t>龚林</t>
   </si>
   <si>
     <t>谌莉</t>
-  </si>
-  <si>
-    <t>张春林</t>
   </si>
   <si>
     <t>段晓波</t>
@@ -1184,7 +1178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N189"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1229,7 +1223,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1260,13 +1254,13 @@
         <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1295,13 +1289,13 @@
         <v>0.923469387755102</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L4" s="4">
-        <v>2033</v>
+        <v>1747</v>
       </c>
       <c r="M4" s="6">
-        <v>0.1394854202401372</v>
+        <v>0.1631642850471654</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1324,19 +1318,19 @@
         <v>12.913258</v>
       </c>
       <c r="G5" s="4">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H5" s="6">
-        <v>0.9034090909090909</v>
+        <v>0.9085714285714286</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L5" s="4">
         <v>4</v>
       </c>
       <c r="M5" s="6">
-        <v>0.000274442538593482</v>
+        <v>0.0003735873727468012</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1365,13 +1359,13 @@
         <v>0.9694656488549618</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L6" s="4">
         <v>3872</v>
       </c>
       <c r="M6" s="6">
-        <v>0.2656603773584906</v>
+        <v>0.3616325768189035</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1400,13 +1394,13 @@
         <v>0.9618320610687023</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L7" s="4">
         <v>5060</v>
       </c>
       <c r="M7" s="6">
-        <v>0.3471698113207547</v>
+        <v>0.4725880265247034</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1429,19 +1423,19 @@
         <v>10.276414</v>
       </c>
       <c r="G8" s="4">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H8" s="6">
-        <v>0.8175675675675675</v>
+        <v>0.8287671232876712</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L8" s="4">
         <v>1</v>
       </c>
       <c r="M8" s="6">
-        <v>6.86106346483705e-05</v>
+        <v>9.33968431867003e-05</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1464,19 +1458,19 @@
         <v>17.78476599999999</v>
       </c>
       <c r="G9" s="4">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H9" s="6">
-        <v>0.889763779527559</v>
+        <v>0.9495798319327731</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L9" s="4">
-        <v>3587</v>
+        <v>5</v>
       </c>
       <c r="M9" s="6">
-        <v>0.246106346483705</v>
+        <v>0.0004669842159335014</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1505,13 +1499,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L10" s="4">
         <v>18</v>
       </c>
       <c r="M10" s="6">
-        <v>0.001234991423670669</v>
+        <v>0.001681143177360605</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1540,10 +1534,10 @@
         <v>0.9550561797752809</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L11" s="4">
-        <v>14575</v>
+        <v>10707</v>
       </c>
       <c r="M11" s="6">
         <v>1</v>
@@ -1633,7 +1627,7 @@
         <v>0.9529411764705882</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1668,13 +1662,13 @@
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1709,10 +1703,10 @@
         <v>1213</v>
       </c>
       <c r="M16" s="4">
-        <v>2577</v>
+        <v>2568</v>
       </c>
       <c r="N16" s="6">
-        <v>0.4707023670935196</v>
+        <v>0.4723520249221184</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1747,10 +1741,10 @@
         <v>907</v>
       </c>
       <c r="M17" s="4">
-        <v>1656</v>
+        <v>1644</v>
       </c>
       <c r="N17" s="6">
-        <v>0.5477053140096618</v>
+        <v>0.5517031630170316</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1785,10 +1779,10 @@
         <v>756</v>
       </c>
       <c r="M18" s="4">
-        <v>1452</v>
+        <v>1439</v>
       </c>
       <c r="N18" s="6">
-        <v>0.5206611570247934</v>
+        <v>0.5253648366921473</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1811,10 +1805,10 @@
         <v>8.127708999999999</v>
       </c>
       <c r="G19" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H19" s="6">
-        <v>0.3523316062176166</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>46</v>
@@ -1823,10 +1817,10 @@
         <v>397</v>
       </c>
       <c r="M19" s="4">
-        <v>2594</v>
+        <v>2544</v>
       </c>
       <c r="N19" s="6">
-        <v>0.1530454895913647</v>
+        <v>0.1560534591194969</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1861,10 +1855,10 @@
         <v>290</v>
       </c>
       <c r="M20" s="4">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="N20" s="6">
-        <v>0.2380952380952381</v>
+        <v>0.238290879211175</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1899,10 +1893,10 @@
         <v>148</v>
       </c>
       <c r="M21" s="4">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="N21" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.1668545659526494</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1975,10 +1969,10 @@
         <v>18</v>
       </c>
       <c r="M23" s="4">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N23" s="6">
-        <v>0.07758620689655173</v>
+        <v>0.07792207792207792</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2007,16 +2001,16 @@
         <v>0.759493670886076</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L24" s="4">
         <v>3872</v>
       </c>
       <c r="M24" s="4">
-        <v>10794</v>
+        <v>10707</v>
       </c>
       <c r="N24" s="6">
-        <v>0.3587178061886233</v>
+        <v>0.3616325768189035</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2103,7 +2097,7 @@
         <v>0.4862385321100918</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2138,13 +2132,13 @@
         <v>4</v>
       </c>
       <c r="L28" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2217,10 +2211,10 @@
         <v>198</v>
       </c>
       <c r="M30" s="4">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N30" s="6">
-        <v>0.9082568807339449</v>
+        <v>0.9428571428571428</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2293,10 +2287,10 @@
         <v>99</v>
       </c>
       <c r="M32" s="4">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N32" s="6">
-        <v>0.4583333333333333</v>
+        <v>0.4626168224299065</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2357,10 +2351,10 @@
         <v>2.507926999999998</v>
       </c>
       <c r="G34" s="4">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H34" s="6">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>73</v>
@@ -2369,10 +2363,10 @@
         <v>45</v>
       </c>
       <c r="M34" s="4">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N34" s="6">
-        <v>0.5555555555555556</v>
+        <v>0.569620253164557</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2395,10 +2389,10 @@
         <v>3.400856999999999</v>
       </c>
       <c r="G35" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" s="6">
-        <v>0.8541666666666666</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>102</v>
@@ -2433,10 +2427,10 @@
         <v>2.633124999999999</v>
       </c>
       <c r="G36" s="4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H36" s="6">
-        <v>0.7843137254901961</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>136</v>
@@ -2477,16 +2471,16 @@
         <v>0.5342465753424658</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L37" s="4">
         <v>907</v>
       </c>
       <c r="M37" s="4">
-        <v>1656</v>
+        <v>1644</v>
       </c>
       <c r="N37" s="6">
-        <v>0.5477053140096618</v>
+        <v>0.5517031630170316</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2535,10 +2529,10 @@
         <v>1.126327</v>
       </c>
       <c r="G39" s="4">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H39" s="6">
-        <v>0.3207547169811321</v>
+        <v>0.3300970873786408</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>0</v>
@@ -2573,7 +2567,7 @@
         <v>0.7804878048780488</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -2599,22 +2593,22 @@
         <v>3.516114999999999</v>
       </c>
       <c r="G41" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H41" s="6">
-        <v>0.5818181818181818</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L41" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2649,10 +2643,10 @@
         <v>350</v>
       </c>
       <c r="M42" s="4">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N42" s="6">
-        <v>0.831353919239905</v>
+        <v>0.8373205741626795</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2675,10 +2669,10 @@
         <v>3.367787</v>
       </c>
       <c r="G43" s="4">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H43" s="6">
-        <v>0.3529411764705883</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>16</v>
@@ -2751,10 +2745,10 @@
         <v>3.347823</v>
       </c>
       <c r="G45" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H45" s="6">
-        <v>0.6444444444444445</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>49</v>
@@ -2763,10 +2757,10 @@
         <v>121</v>
       </c>
       <c r="M45" s="4">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N45" s="6">
-        <v>0.44</v>
+        <v>0.4416058394160584</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2801,10 +2795,10 @@
         <v>81</v>
       </c>
       <c r="M46" s="4">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N46" s="6">
-        <v>0.2093023255813954</v>
+        <v>0.2098445595854922</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2827,10 +2821,10 @@
         <v>4.112155</v>
       </c>
       <c r="G47" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H47" s="6">
-        <v>0.6222222222222222</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>120</v>
@@ -2839,10 +2833,10 @@
         <v>22</v>
       </c>
       <c r="M47" s="4">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N47" s="6">
-        <v>0.05472636815920398</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2877,10 +2871,10 @@
         <v>18</v>
       </c>
       <c r="M48" s="4">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N48" s="6">
-        <v>0.04225352112676056</v>
+        <v>0.04245283018867924</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2909,16 +2903,16 @@
         <v>0.65</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L49" s="4">
         <v>1213</v>
       </c>
       <c r="M49" s="4">
-        <v>2577</v>
+        <v>2568</v>
       </c>
       <c r="N49" s="6">
-        <v>0.4707023670935196</v>
+        <v>0.4723520249221184</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3005,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -3040,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="L53" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N53" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3081,10 +3075,10 @@
         <v>139</v>
       </c>
       <c r="M54" s="4">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="N54" s="6">
-        <v>0.4964285714285714</v>
+        <v>0.5129151291512916</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3119,10 +3113,10 @@
         <v>113</v>
       </c>
       <c r="M55" s="4">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="N55" s="6">
-        <v>0.5355450236966824</v>
+        <v>0.6277777777777778</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3145,10 +3139,10 @@
         <v>2.017671</v>
       </c>
       <c r="G56" s="4">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H56" s="6">
-        <v>0.3676470588235294</v>
+        <v>0.3787878787878788</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>130</v>
@@ -3259,10 +3253,10 @@
         <v>1.290967999999999</v>
       </c>
       <c r="G59" s="4">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H59" s="6">
-        <v>0.4339622641509434</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>124</v>
@@ -3271,10 +3265,10 @@
         <v>28</v>
       </c>
       <c r="M59" s="4">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N59" s="6">
-        <v>0.07216494845360824</v>
+        <v>0.07272727272727272</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3309,10 +3303,10 @@
         <v>16</v>
       </c>
       <c r="M60" s="4">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="N60" s="6">
-        <v>0.1095890410958904</v>
+        <v>0.1151079136690648</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3341,16 +3335,16 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L61" s="4">
         <v>397</v>
       </c>
       <c r="M61" s="4">
-        <v>2594</v>
+        <v>2544</v>
       </c>
       <c r="N61" s="6">
-        <v>0.1530454895913647</v>
+        <v>0.1560534591194969</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3437,7 +3431,7 @@
         <v>0.9130434782608695</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -3463,22 +3457,22 @@
         <v>1.848564</v>
       </c>
       <c r="G65" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H65" s="6">
-        <v>0.3818181818181818</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L65" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N65" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3577,10 +3571,10 @@
         <v>1.764907</v>
       </c>
       <c r="G68" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H68" s="6">
-        <v>0.4444444444444444</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>38</v>
@@ -3589,10 +3583,10 @@
         <v>110</v>
       </c>
       <c r="M68" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N68" s="6">
-        <v>0.3323262839879154</v>
+        <v>0.3313253012048193</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3627,10 +3621,10 @@
         <v>94</v>
       </c>
       <c r="M69" s="4">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N69" s="6">
-        <v>0.6861313868613139</v>
+        <v>0.7014925373134329</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3665,10 +3659,10 @@
         <v>94</v>
       </c>
       <c r="M70" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N70" s="6">
-        <v>0.831858407079646</v>
+        <v>0.8392857142857143</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3703,10 +3697,10 @@
         <v>87</v>
       </c>
       <c r="M71" s="4">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N71" s="6">
-        <v>0.5304878048780488</v>
+        <v>0.54375</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3741,10 +3735,10 @@
         <v>67</v>
       </c>
       <c r="M72" s="4">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N72" s="6">
-        <v>0.4855072463768116</v>
+        <v>0.5075757575757576</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3773,16 +3767,16 @@
         <v>1</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L73" s="4">
         <v>756</v>
       </c>
       <c r="M73" s="4">
-        <v>1452</v>
+        <v>1439</v>
       </c>
       <c r="N73" s="6">
-        <v>0.5206611570247934</v>
+        <v>0.5253648366921473</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3805,10 +3799,10 @@
         <v>1.94739</v>
       </c>
       <c r="G74" s="4">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H74" s="6">
-        <v>0.46875</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3869,7 +3863,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -3904,13 +3898,13 @@
         <v>4</v>
       </c>
       <c r="L77" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N77" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4021,10 +4015,10 @@
         <v>28</v>
       </c>
       <c r="M80" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N80" s="6">
-        <v>0.3943661971830986</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4053,16 +4047,16 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L81" s="4">
         <v>290</v>
       </c>
       <c r="M81" s="4">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="N81" s="6">
-        <v>0.2380952380952381</v>
+        <v>0.238290879211175</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4149,7 +4143,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -4184,13 +4178,13 @@
         <v>4</v>
       </c>
       <c r="L85" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N85" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4225,10 +4219,10 @@
         <v>100</v>
       </c>
       <c r="M86" s="4">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N86" s="6">
-        <v>0.4545454545454545</v>
+        <v>0.45662100456621</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4289,10 +4283,10 @@
         <v>1.334138</v>
       </c>
       <c r="G88" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H88" s="6">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>128</v>
@@ -4333,16 +4327,16 @@
         <v>0.3157894736842105</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L89" s="4">
         <v>148</v>
       </c>
       <c r="M89" s="4">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="N89" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.1668545659526494</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4365,10 +4359,10 @@
         <v>1.824764</v>
       </c>
       <c r="G90" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H90" s="6">
-        <v>0.6875</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4423,13 +4417,13 @@
         <v>0.733508</v>
       </c>
       <c r="G92" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H92" s="6">
-        <v>0.6875</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -4464,13 +4458,13 @@
         <v>4</v>
       </c>
       <c r="L93" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N93" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4575,7 +4569,7 @@
         <v>0.1153846153846154</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L96" s="4">
         <v>143</v>
@@ -4633,10 +4627,10 @@
         <v>1.379476</v>
       </c>
       <c r="G98" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H98" s="6">
-        <v>0.1355932203389831</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4763,10 +4757,10 @@
         <v>0.192159</v>
       </c>
       <c r="G103" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H103" s="6">
-        <v>0.05</v>
+        <v>0.05035971223021583</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5179,10 +5173,10 @@
         <v>0.5000439999999999</v>
       </c>
       <c r="G119" s="4">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H119" s="6">
-        <v>0.01904761904761905</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5606,18 +5600,18 @@
         <v>133</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="5"/>
       <c r="G136" s="4">
-        <v>3582</v>
+        <v>168</v>
       </c>
       <c r="H136" s="6"/>
     </row>
@@ -5626,18 +5620,18 @@
         <v>134</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="5"/>
       <c r="G137" s="4">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="H137" s="6"/>
     </row>
@@ -5646,18 +5640,18 @@
         <v>135</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="5"/>
       <c r="G138" s="4">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="H138" s="6"/>
     </row>
@@ -5666,18 +5660,18 @@
         <v>136</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="5"/>
       <c r="G139" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H139" s="6"/>
     </row>
@@ -5686,18 +5680,18 @@
         <v>137</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="5"/>
       <c r="G140" s="4">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H140" s="6"/>
     </row>
@@ -5706,18 +5700,18 @@
         <v>138</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="5"/>
       <c r="G141" s="4">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H141" s="6"/>
     </row>
@@ -5726,18 +5720,18 @@
         <v>139</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="5"/>
       <c r="G142" s="4">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H142" s="6"/>
     </row>
@@ -5746,18 +5740,18 @@
         <v>140</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="5"/>
       <c r="G143" s="4">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H143" s="6"/>
     </row>
@@ -5766,18 +5760,18 @@
         <v>141</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="5"/>
       <c r="G144" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H144" s="6"/>
     </row>
@@ -5786,18 +5780,18 @@
         <v>142</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="5"/>
       <c r="G145" s="4">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H145" s="6"/>
     </row>
@@ -5812,12 +5806,12 @@
         <v>159</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="5"/>
       <c r="G146" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H146" s="6"/>
     </row>
@@ -5826,18 +5820,18 @@
         <v>144</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="5"/>
       <c r="G147" s="4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H147" s="6"/>
     </row>
@@ -5846,18 +5840,18 @@
         <v>145</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="5"/>
       <c r="G148" s="4">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H148" s="6"/>
     </row>
@@ -5872,12 +5866,12 @@
         <v>159</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H149" s="6"/>
     </row>
@@ -5886,13 +5880,13 @@
         <v>147</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
@@ -5906,18 +5900,18 @@
         <v>148</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
       <c r="G151" s="4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H151" s="6"/>
     </row>
@@ -5926,18 +5920,18 @@
         <v>149</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
       <c r="G152" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H152" s="6"/>
     </row>
@@ -5946,18 +5940,18 @@
         <v>150</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
       <c r="G153" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H153" s="6"/>
     </row>
@@ -5969,10 +5963,10 @@
         <v>13</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
@@ -5989,10 +5983,10 @@
         <v>13</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
@@ -6012,12 +6006,12 @@
         <v>52</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
       <c r="G156" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H156" s="6"/>
     </row>
@@ -6026,18 +6020,18 @@
         <v>154</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
       <c r="G157" s="4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H157" s="6"/>
     </row>
@@ -6046,13 +6040,13 @@
         <v>155</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="5"/>
@@ -6066,13 +6060,13 @@
         <v>156</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="5"/>
@@ -6086,13 +6080,13 @@
         <v>157</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="5"/>
@@ -6112,7 +6106,7 @@
         <v>159</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="5"/>
@@ -6126,13 +6120,13 @@
         <v>159</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="5"/>
@@ -6146,18 +6140,18 @@
         <v>160</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="5"/>
       <c r="G163" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H163" s="6"/>
     </row>
@@ -6172,12 +6166,12 @@
         <v>159</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="5"/>
       <c r="G164" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H164" s="6"/>
     </row>
@@ -6192,7 +6186,7 @@
         <v>136</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="5"/>
@@ -6212,7 +6206,7 @@
         <v>159</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="5"/>
@@ -6226,13 +6220,13 @@
         <v>164</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="5"/>
@@ -6246,13 +6240,13 @@
         <v>165</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="5"/>
@@ -6266,13 +6260,13 @@
         <v>166</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="5"/>
@@ -6286,18 +6280,18 @@
         <v>167</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="5"/>
       <c r="G170" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H170" s="6"/>
     </row>
@@ -6306,13 +6300,13 @@
         <v>168</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="5"/>
@@ -6326,13 +6320,13 @@
         <v>169</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="5"/>
@@ -6349,15 +6343,15 @@
         <v>18</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E173" s="4"/>
       <c r="F173" s="5"/>
       <c r="G173" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H173" s="6"/>
     </row>
@@ -6366,13 +6360,13 @@
         <v>171</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E174" s="4"/>
       <c r="F174" s="5"/>
@@ -6386,13 +6380,13 @@
         <v>172</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" s="5"/>
@@ -6406,13 +6400,13 @@
         <v>173</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E176" s="4"/>
       <c r="F176" s="5"/>
@@ -6426,13 +6420,13 @@
         <v>174</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E177" s="4"/>
       <c r="F177" s="5"/>
@@ -6446,13 +6440,13 @@
         <v>175</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E178" s="4"/>
       <c r="F178" s="5"/>
@@ -6466,13 +6460,13 @@
         <v>176</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179" s="5"/>
@@ -6486,18 +6480,18 @@
         <v>177</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E180" s="4"/>
       <c r="F180" s="5"/>
       <c r="G180" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" s="6"/>
     </row>
@@ -6512,7 +6506,7 @@
         <v>81</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="5"/>
@@ -6529,10 +6523,10 @@
         <v>18</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E182" s="4"/>
       <c r="F182" s="5"/>
@@ -6546,13 +6540,13 @@
         <v>180</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E183" s="4"/>
       <c r="F183" s="5"/>
@@ -6566,13 +6560,13 @@
         <v>181</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E184" s="4"/>
       <c r="F184" s="5"/>
@@ -6586,13 +6580,13 @@
         <v>182</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E185" s="4"/>
       <c r="F185" s="5"/>
@@ -6606,13 +6600,13 @@
         <v>183</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E186" s="4"/>
       <c r="F186" s="5"/>
@@ -6626,13 +6620,13 @@
         <v>184</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="5"/>
@@ -6646,13 +6640,13 @@
         <v>185</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E188" s="4"/>
       <c r="F188" s="5"/>
@@ -6660,26 +6654,6 @@
         <v>1</v>
       </c>
       <c r="H188" s="6"/>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="4">
-        <v>186</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E189" s="4"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="4">
-        <v>1</v>
-      </c>
-      <c r="H189" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6710,7 +6684,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6745,7 +6719,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6755,7 +6729,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -6786,13 +6760,13 @@
         <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6821,13 +6795,13 @@
         <v>0.963855421686747</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L4" s="4">
-        <v>1019</v>
+        <v>881</v>
       </c>
       <c r="M4" s="6">
-        <v>0.06991423670668953</v>
+        <v>0.2111190989695663</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6856,13 +6830,13 @@
         <v>0.9104477611940298</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L5" s="4">
         <v>4</v>
       </c>
       <c r="M5" s="6">
-        <v>0.000274442538593482</v>
+        <v>0.000958543014617781</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -6891,13 +6865,13 @@
         <v>0.759493670886076</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L6" s="4">
         <v>1413</v>
       </c>
       <c r="M6" s="6">
-        <v>0.09694682675814752</v>
+        <v>0.3386053199137311</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -6920,19 +6894,19 @@
         <v>7.527904</v>
       </c>
       <c r="G7" s="4">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H7" s="6">
-        <v>0.8823529411764706</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L7" s="4">
         <v>1869</v>
       </c>
       <c r="M7" s="6">
-        <v>0.1282332761578045</v>
+        <v>0.4478792235801581</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -6961,13 +6935,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L8" s="4">
-        <v>1876</v>
+        <v>3</v>
       </c>
       <c r="M8" s="6">
-        <v>0.1287135506003431</v>
+        <v>0.0007189072609633358</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -6996,13 +6970,13 @@
         <v>0.9069767441860465</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L9" s="4">
         <v>3</v>
       </c>
       <c r="M9" s="6">
-        <v>0.0002058319039451115</v>
+        <v>0.0007189072609633358</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -7031,13 +7005,13 @@
         <v>0.5</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L10" s="4">
-        <v>6184</v>
+        <v>4173</v>
       </c>
       <c r="M10" s="6">
-        <v>0.4242881646655232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -7124,7 +7098,7 @@
         <v>0.532258064516129</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -7159,13 +7133,13 @@
         <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -7238,10 +7212,10 @@
         <v>381</v>
       </c>
       <c r="M16" s="4">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="N16" s="6">
-        <v>0.436426116838488</v>
+        <v>0.4389400921658986</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -7276,10 +7250,10 @@
         <v>260</v>
       </c>
       <c r="M17" s="4">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="N17" s="6">
-        <v>0.4513888888888889</v>
+        <v>0.4569420035149385</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -7314,10 +7288,10 @@
         <v>158</v>
       </c>
       <c r="M18" s="4">
-        <v>893</v>
+        <v>860</v>
       </c>
       <c r="N18" s="6">
-        <v>0.1769316909294513</v>
+        <v>0.1837209302325581</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -7498,16 +7472,16 @@
         <v>1</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L23" s="4">
         <v>1413</v>
       </c>
       <c r="M23" s="4">
-        <v>4218</v>
+        <v>4173</v>
       </c>
       <c r="N23" s="6">
-        <v>0.3349928876244666</v>
+        <v>0.3386053199137311</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -7594,7 +7568,7 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -7629,13 +7603,13 @@
         <v>4</v>
       </c>
       <c r="L27" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -7708,10 +7682,10 @@
         <v>75</v>
       </c>
       <c r="M29" s="4">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N29" s="6">
-        <v>0.8620689655172413</v>
+        <v>0.9036144578313253</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -7734,10 +7708,10 @@
         <v>2.009293</v>
       </c>
       <c r="G30" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" s="6">
-        <v>0.6296296296296297</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>36</v>
@@ -7898,10 +7872,10 @@
         <v>12</v>
       </c>
       <c r="M34" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N34" s="6">
-        <v>0.1348314606741573</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -7968,16 +7942,16 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L36" s="4">
         <v>381</v>
       </c>
       <c r="M36" s="4">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="N36" s="6">
-        <v>0.436426116838488</v>
+        <v>0.4389400921658986</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -8064,7 +8038,7 @@
         <v>0.5</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -8099,13 +8073,13 @@
         <v>4</v>
       </c>
       <c r="L40" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -8204,10 +8178,10 @@
         <v>0.7838980000000001</v>
       </c>
       <c r="G43" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H43" s="6">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>26</v>
@@ -8400,7 +8374,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L48" s="4">
         <v>464</v>
@@ -8496,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -8531,13 +8505,13 @@
         <v>4</v>
       </c>
       <c r="L52" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N52" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -8610,10 +8584,10 @@
         <v>33</v>
       </c>
       <c r="M54" s="4">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="N54" s="6">
-        <v>0.3173076923076923</v>
+        <v>0.4459459459459459</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -8636,10 +8610,10 @@
         <v>0.9707779999999999</v>
       </c>
       <c r="G55" s="4">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H55" s="6">
-        <v>0.1607142857142857</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>124</v>
@@ -8762,10 +8736,10 @@
         <v>7</v>
       </c>
       <c r="M58" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N58" s="6">
-        <v>0.1944444444444444</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -8832,16 +8806,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L60" s="4">
         <v>158</v>
       </c>
       <c r="M60" s="4">
-        <v>893</v>
+        <v>860</v>
       </c>
       <c r="N60" s="6">
-        <v>0.1769316909294513</v>
+        <v>0.1837209302325581</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -8928,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -8963,13 +8937,13 @@
         <v>4</v>
       </c>
       <c r="L64" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N64" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -9042,10 +9016,10 @@
         <v>45</v>
       </c>
       <c r="M66" s="4">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N66" s="6">
-        <v>0.5769230769230769</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -9118,10 +9092,10 @@
         <v>39</v>
       </c>
       <c r="M68" s="4">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N68" s="6">
-        <v>0.6724137931034483</v>
+        <v>0.7090909090909091</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -9156,10 +9130,10 @@
         <v>35</v>
       </c>
       <c r="M69" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N69" s="6">
-        <v>0.6862745098039216</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -9264,16 +9238,16 @@
         <v>0.75</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L72" s="4">
         <v>260</v>
       </c>
       <c r="M72" s="4">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="N72" s="6">
-        <v>0.4513888888888889</v>
+        <v>0.4569420035149385</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -9360,7 +9334,7 @@
         <v>0.1621621621621622</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -9395,13 +9369,13 @@
         <v>4</v>
       </c>
       <c r="L76" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N76" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -9534,13 +9508,13 @@
         <v>0.134367</v>
       </c>
       <c r="G80" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H80" s="6">
-        <v>0.06666666666666667</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L80" s="4">
         <v>35</v>
@@ -9636,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -9671,13 +9645,13 @@
         <v>4</v>
       </c>
       <c r="L84" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N84" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -9820,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L88" s="4">
         <v>47</v>
@@ -9910,13 +9884,13 @@
         <v>0.033963</v>
       </c>
       <c r="G91" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H91" s="6">
-        <v>0.1578947368421053</v>
+        <v>0.1875</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -9951,13 +9925,13 @@
         <v>4</v>
       </c>
       <c r="L92" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N92" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -10018,10 +9992,10 @@
         <v>0.270226</v>
       </c>
       <c r="G94" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H94" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>89</v>
@@ -10062,7 +10036,7 @@
         <v>0.5</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L95" s="4">
         <v>56</v>
@@ -10302,10 +10276,10 @@
         <v>0.488723</v>
       </c>
       <c r="G104" s="4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H104" s="6">
-        <v>0.04545454545454546</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -10495,18 +10469,18 @@
         <v>109</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="5"/>
       <c r="G112" s="4">
-        <v>1873</v>
+        <v>143</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -10515,18 +10489,18 @@
         <v>110</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="5"/>
       <c r="G113" s="4">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H113" s="6"/>
     </row>
@@ -10535,18 +10509,18 @@
         <v>111</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="5"/>
       <c r="G114" s="4">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="H114" s="6"/>
     </row>
@@ -10555,18 +10529,18 @@
         <v>112</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="5"/>
       <c r="G115" s="4">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="H115" s="6"/>
     </row>
@@ -10575,18 +10549,18 @@
         <v>113</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="5"/>
       <c r="G116" s="4">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H116" s="6"/>
     </row>
@@ -10601,12 +10575,12 @@
         <v>29</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="5"/>
       <c r="G117" s="4">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H117" s="6"/>
     </row>
@@ -10615,18 +10589,18 @@
         <v>115</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="5"/>
       <c r="G118" s="4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H118" s="6"/>
     </row>
@@ -10635,18 +10609,18 @@
         <v>116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="5"/>
       <c r="G119" s="4">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H119" s="6"/>
     </row>
@@ -10655,18 +10629,18 @@
         <v>117</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="5"/>
       <c r="G120" s="4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H120" s="6"/>
     </row>
@@ -10675,18 +10649,18 @@
         <v>118</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="5"/>
       <c r="G121" s="4">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H121" s="6"/>
     </row>
@@ -10698,15 +10672,15 @@
         <v>51</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
       <c r="G122" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H122" s="6"/>
     </row>
@@ -10718,15 +10692,15 @@
         <v>51</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="5"/>
       <c r="G123" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H123" s="6"/>
     </row>
@@ -10735,18 +10709,18 @@
         <v>121</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="5"/>
       <c r="G124" s="4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H124" s="6"/>
     </row>
@@ -10755,18 +10729,18 @@
         <v>122</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="5"/>
       <c r="G125" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H125" s="6"/>
     </row>
@@ -10775,18 +10749,18 @@
         <v>123</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="5"/>
       <c r="G126" s="4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H126" s="6"/>
     </row>
@@ -10795,18 +10769,18 @@
         <v>124</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="5"/>
       <c r="G127" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H127" s="6"/>
     </row>
@@ -10821,12 +10795,12 @@
         <v>118</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="5"/>
       <c r="G128" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H128" s="6"/>
     </row>
@@ -10835,13 +10809,13 @@
         <v>126</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="5"/>
@@ -10855,13 +10829,13 @@
         <v>127</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="5"/>
@@ -10881,12 +10855,12 @@
         <v>159</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="5"/>
       <c r="G131" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H131" s="6"/>
     </row>
@@ -10901,12 +10875,12 @@
         <v>159</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="5"/>
       <c r="G132" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H132" s="6"/>
     </row>
@@ -10915,13 +10889,13 @@
         <v>130</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="5"/>
@@ -10935,18 +10909,18 @@
         <v>131</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="5"/>
       <c r="G134" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H134" s="6"/>
     </row>
@@ -10958,15 +10932,15 @@
         <v>13</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="5"/>
       <c r="G135" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H135" s="6"/>
     </row>
@@ -10975,18 +10949,18 @@
         <v>133</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="5"/>
       <c r="G136" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H136" s="6"/>
     </row>
@@ -10995,18 +10969,18 @@
         <v>134</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="5"/>
       <c r="G137" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H137" s="6"/>
     </row>
@@ -11015,18 +10989,18 @@
         <v>135</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="5"/>
       <c r="G138" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H138" s="6"/>
     </row>
@@ -11035,13 +11009,13 @@
         <v>136</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="5"/>
@@ -11061,7 +11035,7 @@
         <v>118</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="5"/>
@@ -11075,18 +11049,18 @@
         <v>138</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="5"/>
       <c r="G141" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H141" s="6"/>
     </row>
@@ -11095,13 +11069,13 @@
         <v>139</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="5"/>
@@ -11115,18 +11089,18 @@
         <v>140</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="5"/>
       <c r="G143" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H143" s="6"/>
     </row>
@@ -11135,18 +11109,18 @@
         <v>141</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="5"/>
       <c r="G144" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H144" s="6"/>
     </row>
@@ -11158,10 +11132,10 @@
         <v>13</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="5"/>
@@ -11175,10 +11149,10 @@
         <v>143</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>207</v>
@@ -11195,13 +11169,13 @@
         <v>144</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="5"/>
@@ -11218,10 +11192,10 @@
         <v>13</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="5"/>
@@ -11238,15 +11212,15 @@
         <v>13</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H149" s="6"/>
     </row>
@@ -11258,10 +11232,10 @@
         <v>13</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
@@ -11281,12 +11255,12 @@
         <v>159</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
       <c r="G151" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H151" s="6"/>
     </row>
@@ -11295,13 +11269,13 @@
         <v>149</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
@@ -11315,18 +11289,18 @@
         <v>150</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
       <c r="G153" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H153" s="6"/>
     </row>
@@ -11335,13 +11309,13 @@
         <v>151</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
@@ -11355,13 +11329,13 @@
         <v>152</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
@@ -11375,13 +11349,13 @@
         <v>153</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
@@ -11395,13 +11369,13 @@
         <v>154</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
@@ -11415,18 +11389,18 @@
         <v>155</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="5"/>
       <c r="G158" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H158" s="6"/>
     </row>
@@ -11435,13 +11409,13 @@
         <v>156</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="5"/>
@@ -11461,7 +11435,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="5"/>
@@ -11475,13 +11449,13 @@
         <v>158</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="5"/>
@@ -11495,13 +11469,13 @@
         <v>159</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="5"/>
@@ -11515,13 +11489,13 @@
         <v>160</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="5"/>
@@ -11535,13 +11509,13 @@
         <v>161</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="5"/>
@@ -11555,18 +11529,18 @@
         <v>162</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="5"/>
       <c r="G165" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" s="6"/>
     </row>
@@ -11575,13 +11549,13 @@
         <v>163</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="5"/>
@@ -11595,13 +11569,13 @@
         <v>164</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="5"/>
@@ -11615,13 +11589,13 @@
         <v>165</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="5"/>
@@ -11635,13 +11609,13 @@
         <v>166</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="5"/>
@@ -11655,10 +11629,10 @@
         <v>167</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>238</v>
@@ -11678,10 +11652,10 @@
         <v>13</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="5"/>
@@ -11695,13 +11669,13 @@
         <v>169</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="5"/>
@@ -11709,26 +11683,6 @@
         <v>1</v>
       </c>
       <c r="H172" s="6"/>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="4">
-        <v>170</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E173" s="4"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="4">
-        <v>1</v>
-      </c>
-      <c r="H173" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -11759,7 +11713,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11794,7 +11748,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -11804,7 +11758,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -11835,13 +11789,13 @@
         <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -11870,13 +11824,13 @@
         <v>0.9364161849710982</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L4" s="4">
-        <v>1014</v>
+        <v>866</v>
       </c>
       <c r="M4" s="6">
-        <v>0.06957118353344768</v>
+        <v>0.1325374961738598</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -11899,19 +11853,19 @@
         <v>10.017973</v>
       </c>
       <c r="G5" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="6">
-        <v>0.9117647058823529</v>
+        <v>0.9185185185185185</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L5" s="4">
         <v>2459</v>
       </c>
       <c r="M5" s="6">
-        <v>0.168713550600343</v>
+        <v>0.3763391490664218</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -11940,13 +11894,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L6" s="4">
         <v>3191</v>
       </c>
       <c r="M6" s="6">
-        <v>0.2189365351629503</v>
+        <v>0.4883685338230793</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -11975,13 +11929,13 @@
         <v>0.2781456953642384</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L7" s="4">
         <v>1</v>
       </c>
       <c r="M7" s="6">
-        <v>6.86106346483705e-05</v>
+        <v>0.0001530456075910621</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -12010,13 +11964,13 @@
         <v>0.6513761467889908</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L8" s="4">
-        <v>1711</v>
+        <v>2</v>
       </c>
       <c r="M8" s="6">
-        <v>0.1173927958833619</v>
+        <v>0.0003060912151821243</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -12039,19 +11993,19 @@
         <v>10.256862</v>
       </c>
       <c r="G9" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H9" s="6">
-        <v>0.8947368421052632</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L9" s="4">
         <v>15</v>
       </c>
       <c r="M9" s="6">
-        <v>0.001029159519725557</v>
+        <v>0.002295684113865932</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -12080,13 +12034,13 @@
         <v>0.2446043165467626</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L10" s="4">
-        <v>8391</v>
+        <v>6534</v>
       </c>
       <c r="M10" s="6">
-        <v>0.5757118353344769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -12173,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -12199,22 +12153,22 @@
         <v>5.376747999999998</v>
       </c>
       <c r="G14" s="4">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="6">
-        <v>0.7407407407407407</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -12249,10 +12203,10 @@
         <v>749</v>
       </c>
       <c r="M15" s="4">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="N15" s="6">
-        <v>0.4795134443021767</v>
+        <v>0.4822923374114617</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -12287,10 +12241,10 @@
         <v>526</v>
       </c>
       <c r="M16" s="4">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="N16" s="6">
-        <v>0.6717752234993615</v>
+        <v>0.6778350515463918</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -12325,10 +12279,10 @@
         <v>496</v>
       </c>
       <c r="M17" s="4">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="N17" s="6">
-        <v>0.5662100456621004</v>
+        <v>0.5701149425287356</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -12363,10 +12317,10 @@
         <v>255</v>
       </c>
       <c r="M18" s="4">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N18" s="6">
-        <v>0.3098420413122722</v>
+        <v>0.3102189781021898</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -12401,10 +12355,10 @@
         <v>239</v>
       </c>
       <c r="M19" s="4">
-        <v>1701</v>
+        <v>1684</v>
       </c>
       <c r="N19" s="6">
-        <v>0.1405055849500294</v>
+        <v>0.1419239904988124</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -12439,10 +12393,10 @@
         <v>101</v>
       </c>
       <c r="M20" s="4">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N20" s="6">
-        <v>0.1866913123844732</v>
+        <v>0.187037037037037</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -12515,10 +12469,10 @@
         <v>6</v>
       </c>
       <c r="M22" s="4">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N22" s="6">
-        <v>0.03208556149732621</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -12547,16 +12501,16 @@
         <v>0.8604651162790697</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L23" s="4">
         <v>2459</v>
       </c>
       <c r="M23" s="4">
-        <v>6576</v>
+        <v>6534</v>
       </c>
       <c r="N23" s="6">
-        <v>0.3739355231143552</v>
+        <v>0.3763391490664218</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -12579,10 +12533,10 @@
         <v>1.647492999999999</v>
       </c>
       <c r="G24" s="4">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H24" s="6">
-        <v>0.6981132075471698</v>
+        <v>0.7551020408163265</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -12637,13 +12591,13 @@
         <v>3.813835999999999</v>
       </c>
       <c r="G26" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H26" s="6">
-        <v>0.2644628099173554</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -12678,13 +12632,13 @@
         <v>4</v>
       </c>
       <c r="L27" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -12745,10 +12699,10 @@
         <v>1.849227</v>
       </c>
       <c r="G29" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="6">
-        <v>0.9032258064516129</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>22</v>
@@ -12757,10 +12711,10 @@
         <v>123</v>
       </c>
       <c r="M29" s="4">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N29" s="6">
-        <v>0.9389312977099237</v>
+        <v>0.968503937007874</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -12871,10 +12825,10 @@
         <v>74</v>
       </c>
       <c r="M32" s="4">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N32" s="6">
-        <v>0.5606060606060606</v>
+        <v>0.5692307692307692</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -12909,10 +12863,10 @@
         <v>18</v>
       </c>
       <c r="M33" s="4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N33" s="6">
-        <v>0.3829787234042553</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -12947,10 +12901,10 @@
         <v>7</v>
       </c>
       <c r="M34" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N34" s="6">
-        <v>0.09090909090909091</v>
+        <v>0.08974358974358974</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -13017,16 +12971,16 @@
         <v>0.8275862068965517</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L36" s="4">
         <v>526</v>
       </c>
       <c r="M36" s="4">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="N36" s="6">
-        <v>0.6717752234993615</v>
+        <v>0.6778350515463918</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -13113,7 +13067,7 @@
         <v>0.71875</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -13148,13 +13102,13 @@
         <v>4</v>
       </c>
       <c r="L40" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -13177,10 +13131,10 @@
         <v>2.397009</v>
       </c>
       <c r="G41" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H41" s="6">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>26</v>
@@ -13253,10 +13207,10 @@
         <v>1.659401</v>
       </c>
       <c r="G43" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" s="6">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>14</v>
@@ -13265,10 +13219,10 @@
         <v>192</v>
       </c>
       <c r="M43" s="4">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N43" s="6">
-        <v>0.8240343347639485</v>
+        <v>0.8347826086956521</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -13291,10 +13245,10 @@
         <v>1.140963</v>
       </c>
       <c r="G44" s="4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H44" s="6">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>49</v>
@@ -13303,10 +13257,10 @@
         <v>63</v>
       </c>
       <c r="M44" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N44" s="6">
-        <v>0.3641618497109826</v>
+        <v>0.3662790697674418</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -13341,10 +13295,10 @@
         <v>48</v>
       </c>
       <c r="M45" s="4">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N45" s="6">
-        <v>0.2487046632124352</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -13379,10 +13333,10 @@
         <v>18</v>
       </c>
       <c r="M46" s="4">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N46" s="6">
-        <v>0.06666666666666667</v>
+        <v>0.06716417910447761</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -13417,10 +13371,10 @@
         <v>12</v>
       </c>
       <c r="M47" s="4">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N47" s="6">
-        <v>0.04580152671755725</v>
+        <v>0.04615384615384616</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -13449,16 +13403,16 @@
         <v>1</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L48" s="4">
         <v>749</v>
       </c>
       <c r="M48" s="4">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="N48" s="6">
-        <v>0.4795134443021767</v>
+        <v>0.4822923374114617</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -13539,13 +13493,13 @@
         <v>1.825922</v>
       </c>
       <c r="G51" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51" s="6">
-        <v>0.4523809523809524</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -13580,13 +13534,13 @@
         <v>4</v>
       </c>
       <c r="L52" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N52" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -13621,10 +13575,10 @@
         <v>80</v>
       </c>
       <c r="M53" s="4">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N53" s="6">
-        <v>0.6106870229007634</v>
+        <v>0.6557377049180327</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -13647,10 +13601,10 @@
         <v>1.452255</v>
       </c>
       <c r="G54" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H54" s="6">
-        <v>0.7272727272727273</v>
+        <v>0.8</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>58</v>
@@ -13659,10 +13613,10 @@
         <v>80</v>
       </c>
       <c r="M54" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N54" s="6">
-        <v>0.7476635514018691</v>
+        <v>0.7547169811320755</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -13761,10 +13715,10 @@
         <v>0.776819</v>
       </c>
       <c r="G57" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H57" s="6">
-        <v>0.7894736842105263</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>96</v>
@@ -13811,10 +13765,10 @@
         <v>9</v>
       </c>
       <c r="M58" s="4">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N58" s="6">
-        <v>0.08181818181818182</v>
+        <v>0.08490566037735849</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -13837,10 +13791,10 @@
         <v>2.298439</v>
       </c>
       <c r="G59" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H59" s="6">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>124</v>
@@ -13849,10 +13803,10 @@
         <v>3</v>
       </c>
       <c r="M59" s="4">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N59" s="6">
-        <v>0.01071428571428571</v>
+        <v>0.01083032490974729</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -13881,16 +13835,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L60" s="4">
         <v>239</v>
       </c>
       <c r="M60" s="4">
-        <v>1701</v>
+        <v>1684</v>
       </c>
       <c r="N60" s="6">
-        <v>0.1405055849500294</v>
+        <v>0.1419239904988124</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -13971,13 +13925,13 @@
         <v>1.491048</v>
       </c>
       <c r="G63" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H63" s="6">
-        <v>0.3793103448275862</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -14012,13 +13966,13 @@
         <v>4</v>
       </c>
       <c r="L64" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N64" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -14167,10 +14121,10 @@
         <v>52</v>
       </c>
       <c r="M68" s="4">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N68" s="6">
-        <v>0.7222222222222222</v>
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -14243,10 +14197,10 @@
         <v>48</v>
       </c>
       <c r="M70" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N70" s="6">
-        <v>0.4528301886792453</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -14281,10 +14235,10 @@
         <v>46</v>
       </c>
       <c r="M71" s="4">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N71" s="6">
-        <v>0.2200956937799043</v>
+        <v>0.219047619047619</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -14313,16 +14267,16 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L72" s="4">
         <v>496</v>
       </c>
       <c r="M72" s="4">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="N72" s="6">
-        <v>0.5662100456621004</v>
+        <v>0.5701149425287356</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -14409,7 +14363,7 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -14444,13 +14398,13 @@
         <v>4</v>
       </c>
       <c r="L76" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N76" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -14561,10 +14515,10 @@
         <v>12</v>
       </c>
       <c r="M79" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N79" s="6">
-        <v>0.3529411764705883</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -14593,16 +14547,16 @@
         <v>0.03825136612021858</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L80" s="4">
         <v>255</v>
       </c>
       <c r="M80" s="4">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N80" s="6">
-        <v>0.3098420413122722</v>
+        <v>0.3102189781021898</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -14689,7 +14643,7 @@
         <v>0.875</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -14724,13 +14678,13 @@
         <v>4</v>
       </c>
       <c r="L84" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N84" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -14765,10 +14719,10 @@
         <v>77</v>
       </c>
       <c r="M85" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N85" s="6">
-        <v>0.5099337748344371</v>
+        <v>0.5133333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -14869,16 +14823,16 @@
         <v>1</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L88" s="4">
         <v>101</v>
       </c>
       <c r="M88" s="4">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N88" s="6">
-        <v>0.1866913123844732</v>
+        <v>0.187037037037037</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -14901,10 +14855,10 @@
         <v>0.5149550000000001</v>
       </c>
       <c r="G89" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H89" s="6">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -14965,7 +14919,7 @@
         <v>0.131578947368421</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -15000,13 +14954,13 @@
         <v>4</v>
       </c>
       <c r="L92" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N92" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -15111,7 +15065,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L95" s="4">
         <v>87</v>
@@ -15247,10 +15201,10 @@
         <v>0.455138</v>
       </c>
       <c r="G100" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H100" s="6">
-        <v>0.07142857142857142</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -15403,10 +15357,10 @@
         <v>0.152358</v>
       </c>
       <c r="G106" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H106" s="6">
-        <v>0.1538461538461539</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -15429,10 +15383,10 @@
         <v>0.06783</v>
       </c>
       <c r="G107" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H107" s="6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -15663,10 +15617,10 @@
         <v>0.011321</v>
       </c>
       <c r="G116" s="4">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H116" s="6">
-        <v>0.01204819277108434</v>
+        <v>0.01265822784810127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -15804,18 +15758,18 @@
         <v>119</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
       <c r="G122" s="4">
-        <v>1709</v>
+        <v>131</v>
       </c>
       <c r="H122" s="6"/>
     </row>
@@ -15824,18 +15778,18 @@
         <v>120</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="5"/>
       <c r="G123" s="4">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="H123" s="6"/>
     </row>
@@ -15847,15 +15801,15 @@
         <v>13</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="5"/>
       <c r="G124" s="4">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H124" s="6"/>
     </row>
@@ -15864,18 +15818,18 @@
         <v>122</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="5"/>
       <c r="G125" s="4">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H125" s="6"/>
     </row>
@@ -15884,18 +15838,18 @@
         <v>123</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="5"/>
       <c r="G126" s="4">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H126" s="6"/>
     </row>
@@ -15904,18 +15858,18 @@
         <v>124</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="5"/>
       <c r="G127" s="4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H127" s="6"/>
     </row>
@@ -15924,18 +15878,18 @@
         <v>125</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="5"/>
       <c r="G128" s="4">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H128" s="6"/>
     </row>
@@ -15950,12 +15904,12 @@
         <v>128</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="5"/>
       <c r="G129" s="4">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H129" s="6"/>
     </row>
@@ -15964,13 +15918,13 @@
         <v>127</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="5"/>
@@ -15987,15 +15941,15 @@
         <v>13</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="5"/>
       <c r="G131" s="4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H131" s="6"/>
     </row>
@@ -16004,18 +15958,18 @@
         <v>129</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="5"/>
       <c r="G132" s="4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H132" s="6"/>
     </row>
@@ -16030,12 +15984,12 @@
         <v>159</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="5"/>
       <c r="G133" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H133" s="6"/>
     </row>
@@ -16044,18 +15998,18 @@
         <v>131</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="5"/>
       <c r="G134" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H134" s="6"/>
     </row>
@@ -16064,10 +16018,10 @@
         <v>132</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>198</v>
@@ -16075,7 +16029,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="5"/>
       <c r="G135" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H135" s="6"/>
     </row>
@@ -16090,12 +16044,12 @@
         <v>159</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="5"/>
       <c r="G136" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H136" s="6"/>
     </row>
@@ -16110,12 +16064,12 @@
         <v>96</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="5"/>
       <c r="G137" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H137" s="6"/>
     </row>
@@ -16124,18 +16078,18 @@
         <v>135</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="5"/>
       <c r="G138" s="4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H138" s="6"/>
     </row>
@@ -16144,18 +16098,18 @@
         <v>136</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="5"/>
       <c r="G139" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H139" s="6"/>
     </row>
@@ -16164,13 +16118,13 @@
         <v>137</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="5"/>
@@ -16184,18 +16138,18 @@
         <v>138</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="5"/>
       <c r="G141" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H141" s="6"/>
     </row>
@@ -16210,12 +16164,12 @@
         <v>32</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="5"/>
       <c r="G142" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H142" s="6"/>
     </row>
@@ -16224,18 +16178,18 @@
         <v>140</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="5"/>
       <c r="G143" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H143" s="6"/>
     </row>
@@ -16244,18 +16198,18 @@
         <v>141</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="5"/>
       <c r="G144" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H144" s="6"/>
     </row>
@@ -16264,18 +16218,18 @@
         <v>142</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="5"/>
       <c r="G145" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H145" s="6"/>
     </row>
@@ -16287,15 +16241,15 @@
         <v>51</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="5"/>
       <c r="G146" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H146" s="6"/>
     </row>
@@ -16310,12 +16264,12 @@
         <v>159</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="5"/>
       <c r="G147" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H147" s="6"/>
     </row>
@@ -16330,7 +16284,7 @@
         <v>159</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="5"/>
@@ -16344,18 +16298,18 @@
         <v>146</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H149" s="6"/>
     </row>
@@ -16364,13 +16318,13 @@
         <v>147</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
@@ -16390,7 +16344,7 @@
         <v>159</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
@@ -16404,18 +16358,18 @@
         <v>149</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
       <c r="G152" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H152" s="6"/>
     </row>
@@ -16424,18 +16378,18 @@
         <v>150</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
       <c r="G153" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H153" s="6"/>
     </row>
@@ -16444,13 +16398,13 @@
         <v>151</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
@@ -16464,18 +16418,18 @@
         <v>152</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
       <c r="G155" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H155" s="6"/>
     </row>
@@ -16487,10 +16441,10 @@
         <v>18</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
@@ -16504,13 +16458,13 @@
         <v>154</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
@@ -16527,10 +16481,10 @@
         <v>13</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="5"/>
@@ -16550,7 +16504,7 @@
         <v>159</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="5"/>
@@ -16570,12 +16524,12 @@
         <v>159</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="5"/>
       <c r="G160" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H160" s="6"/>
     </row>
@@ -16590,7 +16544,7 @@
         <v>73</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="5"/>
@@ -16610,7 +16564,7 @@
         <v>124</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="5"/>
@@ -16624,13 +16578,13 @@
         <v>160</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="5"/>
@@ -16644,13 +16598,13 @@
         <v>161</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="5"/>
@@ -16664,13 +16618,13 @@
         <v>162</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="5"/>
@@ -16687,10 +16641,10 @@
         <v>46</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="5"/>
@@ -16704,13 +16658,13 @@
         <v>164</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="5"/>
@@ -16724,18 +16678,18 @@
         <v>165</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="5"/>
       <c r="G168" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168" s="6"/>
     </row>
@@ -16750,7 +16704,7 @@
         <v>81</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="5"/>
@@ -16767,10 +16721,10 @@
         <v>18</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="5"/>
@@ -16784,13 +16738,13 @@
         <v>168</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="5"/>
@@ -16804,13 +16758,13 @@
         <v>169</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="5"/>
@@ -16824,10 +16778,10 @@
         <v>170</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>239</v>
@@ -16844,13 +16798,13 @@
         <v>171</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="E174" s="4"/>
       <c r="F174" s="5"/>
@@ -16858,26 +16812,6 @@
         <v>1</v>
       </c>
       <c r="H174" s="6"/>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="4">
-        <v>172</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E175" s="4"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="4">
-        <v>1</v>
-      </c>
-      <c r="H175" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/APP出单业务竞赛统计表.xlsx
+++ b/APP出单业务竞赛统计表.xlsx
@@ -11,13 +11,14 @@
     <sheet name="第8周数据统计表" sheetId="2" r:id="rId2"/>
     <sheet name="第9周数据统计表" sheetId="3" r:id="rId3"/>
     <sheet name="第10周数据统计表" sheetId="4" r:id="rId4"/>
+    <sheet name="第11周数据统计表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="270">
   <si>
     <t>掌上宝APP出单数量统计表</t>
   </si>
@@ -824,6 +825,9 @@
   </si>
   <si>
     <t>数据统计范围：2020-03-02 至 2020-03-08</t>
+  </si>
+  <si>
+    <t>数据统计范围：2020-03-09 至 None</t>
   </si>
 </sst>
 </file>
@@ -25625,4 +25629,791 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="17" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="K4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="K7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="K8" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="K10" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="K12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="K13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="K14" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="K16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="11:17">
+      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="11:17">
+      <c r="K19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="11:17">
+      <c r="K20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="11:17">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="11:17">
+      <c r="K22" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="11:17">
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="11:17">
+      <c r="K25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="11:17">
+      <c r="K26" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="11:17">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="11:17">
+      <c r="K28" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="11:17">
+      <c r="K30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="11:17">
+      <c r="K31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="11:17">
+      <c r="K32" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="11:17">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="11:17">
+      <c r="K34" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="11:17">
+      <c r="K36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="11:17">
+      <c r="K37" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="11:17">
+      <c r="K38" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="11:17">
+      <c r="K39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="11:17">
+      <c r="K40" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="11:17">
+      <c r="K42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="11:17">
+      <c r="K43" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="11:17">
+      <c r="K44" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="11:17">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="11:17">
+      <c r="K46" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="11:17">
+      <c r="K48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="11:17">
+      <c r="K49" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="11:17">
+      <c r="K50" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="11:17">
+      <c r="K51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="11:17">
+      <c r="K52" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>